--- a/LLM.xlsx
+++ b/LLM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88c89510c1e556a9/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{12357490-1D6B-483E-A40B-864F064FA5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35E5161C-637D-46B5-A5F2-2324B2AFE275}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{12357490-1D6B-483E-A40B-864F064FA5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED5DEAF2-723F-4B83-A97D-92E3041E0B27}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0ED39ADE-2C65-4C24-BE08-46F6BEAFB78E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Prompt Engineering</t>
   </si>
@@ -70,6 +70,45 @@
   </si>
   <si>
     <t>The means of interacting with the AI system, like a chat or text box</t>
+  </si>
+  <si>
+    <t>Effective Communicator</t>
+  </si>
+  <si>
+    <t>Tone</t>
+  </si>
+  <si>
+    <t>The style, emotion, or attitude conveyed in the language. Setting the tone guides the AI's response</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>A specific identity or perspective the AI should adopt when generating the text. Providing a persona affects the tone and language</t>
+  </si>
+  <si>
+    <t>Refine</t>
+  </si>
+  <si>
+    <t>Iteratively improve a prompt and response, building on previous interactions rather than starting over each time</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Asking the AI for suggestions on how to provide better prompts and context. Incorporating this into subsequent prompts</t>
+  </si>
+  <si>
+    <t>Limitations</t>
+  </si>
+  <si>
+    <t>Constraints on the AI's knowledge and capabilities. It cannot access real-time info or personal details</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Clear, direct, and specific requests within a promt. Vague instructions provide vague responses</t>
   </si>
 </sst>
 </file>
@@ -140,11 +179,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,17 +499,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E42E09-9FE2-4272-A07C-B2F08F22CEC7}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,15 +519,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -493,7 +538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -501,7 +546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -509,12 +554,60 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/LLM.xlsx
+++ b/LLM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88c89510c1e556a9/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{12357490-1D6B-483E-A40B-864F064FA5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED5DEAF2-723F-4B83-A97D-92E3041E0B27}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{12357490-1D6B-483E-A40B-864F064FA5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44684B73-BBF2-4E0E-B2AC-446938D94EDF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0ED39ADE-2C65-4C24-BE08-46F6BEAFB78E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Prompt Engineering</t>
   </si>
@@ -109,6 +109,33 @@
   </si>
   <si>
     <t>Clear, direct, and specific requests within a promt. Vague instructions provide vague responses</t>
+  </si>
+  <si>
+    <t>Context Overload</t>
+  </si>
+  <si>
+    <t>Providing too much context and instructions can overwhelm the AI, resulting in poor or incomplete responses</t>
+  </si>
+  <si>
+    <t>Task Breakdown</t>
+  </si>
+  <si>
+    <t>Breaking a complex request into smaller, more manageable prompts for AI. This avoid overloading it.</t>
+  </si>
+  <si>
+    <t>Chain of Thought</t>
+  </si>
+  <si>
+    <t>Prompting the AI to explain its reasoning step-by-step. Useful for getting more detailed responses</t>
+  </si>
+  <si>
+    <t>AI assistants have constraints on knowledge, skills, and processing ability. Pushing too hard leads to poor results</t>
+  </si>
+  <si>
+    <t>Rephrasing</t>
+  </si>
+  <si>
+    <t>Restating or rewording a prompt to get better results from the AI. Helps clarify intent.</t>
   </si>
 </sst>
 </file>
@@ -152,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -175,16 +202,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E42E09-9FE2-4272-A07C-B2F08F22CEC7}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -610,6 +651,46 @@
         <v>24</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
